--- a/MVPLT/data/曹越奇-每日权重.xlsx
+++ b/MVPLT/data/曹越奇-每日权重.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,6 +647,261 @@
         <v>0.5403930372268397</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>43073</v>
+      </c>
+      <c r="B16">
+        <v>0.05760939040492044</v>
+      </c>
+      <c r="C16">
+        <v>0.3639421557723614</v>
+      </c>
+      <c r="D16">
+        <v>0.03795482130684216</v>
+      </c>
+      <c r="E16">
+        <v>0.540493632515876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>43074</v>
+      </c>
+      <c r="B17">
+        <v>0.05748610949638134</v>
+      </c>
+      <c r="C17">
+        <v>0.3640665311164208</v>
+      </c>
+      <c r="D17">
+        <v>0.03788787305189557</v>
+      </c>
+      <c r="E17">
+        <v>0.5405594863353024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>43075</v>
+      </c>
+      <c r="B18">
+        <v>0.05737283072232009</v>
+      </c>
+      <c r="C18">
+        <v>0.3644303806839915</v>
+      </c>
+      <c r="D18">
+        <v>0.03719320664930289</v>
+      </c>
+      <c r="E18">
+        <v>0.5410035819443856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>43076</v>
+      </c>
+      <c r="B19">
+        <v>0.05683185989879423</v>
+      </c>
+      <c r="C19">
+        <v>0.3645643273160479</v>
+      </c>
+      <c r="D19">
+        <v>0.03738795934399843</v>
+      </c>
+      <c r="E19">
+        <v>0.5412158534411594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>43077</v>
+      </c>
+      <c r="B20">
+        <v>0.05729314760846472</v>
+      </c>
+      <c r="C20">
+        <v>0.3642260379407048</v>
+      </c>
+      <c r="D20">
+        <v>0.03768293508124004</v>
+      </c>
+      <c r="E20">
+        <v>0.5407978793695905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>43080</v>
+      </c>
+      <c r="B21">
+        <v>0.05813360520106108</v>
+      </c>
+      <c r="C21">
+        <v>0.3636853850485464</v>
+      </c>
+      <c r="D21">
+        <v>0.03792871883801971</v>
+      </c>
+      <c r="E21">
+        <v>0.5402522909123728</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>43081</v>
+      </c>
+      <c r="B22">
+        <v>0.05751374016837855</v>
+      </c>
+      <c r="C22">
+        <v>0.3640122491984131</v>
+      </c>
+      <c r="D22">
+        <v>0.03754131669232569</v>
+      </c>
+      <c r="E22">
+        <v>0.5409326939408827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>43082</v>
+      </c>
+      <c r="B23">
+        <v>0.05796869520900858</v>
+      </c>
+      <c r="C23">
+        <v>0.3639083379302766</v>
+      </c>
+      <c r="D23">
+        <v>0.03730283923775205</v>
+      </c>
+      <c r="E23">
+        <v>0.5408201276229627</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>43083</v>
+      </c>
+      <c r="B24">
+        <v>0.05772463077989644</v>
+      </c>
+      <c r="C24">
+        <v>0.3639622774149023</v>
+      </c>
+      <c r="D24">
+        <v>0.03756238864388008</v>
+      </c>
+      <c r="E24">
+        <v>0.5407507031613212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>43084</v>
+      </c>
+      <c r="B25">
+        <v>0.05714702491216368</v>
+      </c>
+      <c r="C25">
+        <v>0.3642761652324761</v>
+      </c>
+      <c r="D25">
+        <v>0.03765955982434873</v>
+      </c>
+      <c r="E25">
+        <v>0.5409172500310115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>43087</v>
+      </c>
+      <c r="B26">
+        <v>0.05709422294160232</v>
+      </c>
+      <c r="C26">
+        <v>0.3643298420508079</v>
+      </c>
+      <c r="D26">
+        <v>0.03778119126452899</v>
+      </c>
+      <c r="E26">
+        <v>0.5407947437430608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>43088</v>
+      </c>
+      <c r="B27">
+        <v>0.0577010633347368</v>
+      </c>
+      <c r="C27">
+        <v>0.3640243846888168</v>
+      </c>
+      <c r="D27">
+        <v>0.03790672151574204</v>
+      </c>
+      <c r="E27">
+        <v>0.5403678304607042</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>43089</v>
+      </c>
+      <c r="B28">
+        <v>0.05752104562710225</v>
+      </c>
+      <c r="C28">
+        <v>0.3639536936640456</v>
+      </c>
+      <c r="D28">
+        <v>0.03818911905461395</v>
+      </c>
+      <c r="E28">
+        <v>0.5403361416542382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>43090</v>
+      </c>
+      <c r="B29">
+        <v>0.05797484369617534</v>
+      </c>
+      <c r="C29">
+        <v>0.3636848143994916</v>
+      </c>
+      <c r="D29">
+        <v>0.03833017351906314</v>
+      </c>
+      <c r="E29">
+        <v>0.5400101683852699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>43091</v>
+      </c>
+      <c r="B30">
+        <v>0.05773215114055589</v>
+      </c>
+      <c r="C30">
+        <v>0.363038128757326</v>
+      </c>
+      <c r="D30">
+        <v>0.03839389116896329</v>
+      </c>
+      <c r="E30">
+        <v>0.540835828933155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MVPLT/data/曹越奇-每日权重.xlsx
+++ b/MVPLT/data/曹越奇-每日权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1260,19 +1260,239 @@
         <v>43111</v>
       </c>
       <c r="B44">
-        <v>0.0402298803513947</v>
+        <v>0.04022801400670832</v>
       </c>
       <c r="C44">
-        <v>0.4629835748082728</v>
+        <v>0.4629620960733828</v>
       </c>
       <c r="D44">
-        <v>0.03225967359804757</v>
+        <v>0.03225817700720817</v>
       </c>
       <c r="E44">
-        <v>0.3989125944266396</v>
+        <v>0.3989404800747113</v>
       </c>
       <c r="F44">
-        <v>0.06561427681564537</v>
+        <v>0.06561123283798956</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2">
+        <v>43112</v>
+      </c>
+      <c r="B45">
+        <v>0.04030607295297364</v>
+      </c>
+      <c r="C45">
+        <v>0.4628811988396257</v>
+      </c>
+      <c r="D45">
+        <v>0.03240176548674684</v>
+      </c>
+      <c r="E45">
+        <v>0.3988262626993382</v>
+      </c>
+      <c r="F45">
+        <v>0.06558470002131565</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2">
+        <v>43115</v>
+      </c>
+      <c r="B46">
+        <v>0.04007908140797561</v>
+      </c>
+      <c r="C46">
+        <v>0.4628661659267133</v>
+      </c>
+      <c r="D46">
+        <v>0.03240856775833077</v>
+      </c>
+      <c r="E46">
+        <v>0.3990477163476053</v>
+      </c>
+      <c r="F46">
+        <v>0.06559846855937503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B47">
+        <v>0.040381761845987</v>
+      </c>
+      <c r="C47">
+        <v>0.462804236344132</v>
+      </c>
+      <c r="D47">
+        <v>0.03223927753971997</v>
+      </c>
+      <c r="E47">
+        <v>0.3989928872785918</v>
+      </c>
+      <c r="F47">
+        <v>0.06558183699156926</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="2">
+        <v>43117</v>
+      </c>
+      <c r="B48">
+        <v>0.04025547737444257</v>
+      </c>
+      <c r="C48">
+        <v>0.4627305152312067</v>
+      </c>
+      <c r="D48">
+        <v>0.032372832384947</v>
+      </c>
+      <c r="E48">
+        <v>0.3990565308007641</v>
+      </c>
+      <c r="F48">
+        <v>0.0655846442086396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="2">
+        <v>43118</v>
+      </c>
+      <c r="B49">
+        <v>0.04044833229880425</v>
+      </c>
+      <c r="C49">
+        <v>0.4625055725157425</v>
+      </c>
+      <c r="D49">
+        <v>0.03239879286940586</v>
+      </c>
+      <c r="E49">
+        <v>0.3990683691836404</v>
+      </c>
+      <c r="F49">
+        <v>0.06557893313240692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="2">
+        <v>43119</v>
+      </c>
+      <c r="B50">
+        <v>0.0405230522081239</v>
+      </c>
+      <c r="C50">
+        <v>0.4625886895079912</v>
+      </c>
+      <c r="D50">
+        <v>0.03220273852770753</v>
+      </c>
+      <c r="E50">
+        <v>0.3991079107433167</v>
+      </c>
+      <c r="F50">
+        <v>0.06557760901286076</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="2">
+        <v>43122</v>
+      </c>
+      <c r="B51">
+        <v>0.04096687603194285</v>
+      </c>
+      <c r="C51">
+        <v>0.4623558522792081</v>
+      </c>
+      <c r="D51">
+        <v>0.03231563489408595</v>
+      </c>
+      <c r="E51">
+        <v>0.3988493732177776</v>
+      </c>
+      <c r="F51">
+        <v>0.0655122635769856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2">
+        <v>43123</v>
+      </c>
+      <c r="B52">
+        <v>0.04127370823838942</v>
+      </c>
+      <c r="C52">
+        <v>0.4621313481408255</v>
+      </c>
+      <c r="D52">
+        <v>0.03253008479842771</v>
+      </c>
+      <c r="E52">
+        <v>0.3986010258745623</v>
+      </c>
+      <c r="F52">
+        <v>0.06546383294779498</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2">
+        <v>43124</v>
+      </c>
+      <c r="B53">
+        <v>0.04136033450152667</v>
+      </c>
+      <c r="C53">
+        <v>0.4619324164968951</v>
+      </c>
+      <c r="D53">
+        <v>0.032915173374157</v>
+      </c>
+      <c r="E53">
+        <v>0.3983732906394322</v>
+      </c>
+      <c r="F53">
+        <v>0.06541878498798895</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2">
+        <v>43125</v>
+      </c>
+      <c r="B54">
+        <v>0.04116991823900101</v>
+      </c>
+      <c r="C54">
+        <v>0.462068785137816</v>
+      </c>
+      <c r="D54">
+        <v>0.03288324606031005</v>
+      </c>
+      <c r="E54">
+        <v>0.3984536559908756</v>
+      </c>
+      <c r="F54">
+        <v>0.06542439457199735</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="2">
+        <v>43126</v>
+      </c>
+      <c r="B55">
+        <v>0.04126949880322415</v>
+      </c>
+      <c r="C55">
+        <v>0.4619811347140769</v>
+      </c>
+      <c r="D55">
+        <v>0.03305614143168285</v>
+      </c>
+      <c r="E55">
+        <v>0.3982948978844499</v>
+      </c>
+      <c r="F55">
+        <v>0.06539832716656606</v>
       </c>
     </row>
   </sheetData>

--- a/MVPLT/data/曹越奇-每日权重.xlsx
+++ b/MVPLT/data/曹越奇-每日权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1480,19 +1480,599 @@
         <v>43126</v>
       </c>
       <c r="B55">
-        <v>0.04126949880322415</v>
+        <v>0.04126756238520227</v>
       </c>
       <c r="C55">
-        <v>0.4619811347140769</v>
+        <v>0.4619594579643957</v>
       </c>
       <c r="D55">
-        <v>0.03305614143168285</v>
+        <v>0.03305459039496424</v>
       </c>
       <c r="E55">
-        <v>0.3982948978844499</v>
+        <v>0.3983231306625883</v>
       </c>
       <c r="F55">
-        <v>0.06539832716656606</v>
+        <v>0.06539525859284943</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="2">
+        <v>43129</v>
+      </c>
+      <c r="B56">
+        <v>0.0867687127695843</v>
+      </c>
+      <c r="C56">
+        <v>0.6245042455260362</v>
+      </c>
+      <c r="D56">
+        <v>0.04658229461489671</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0.2421447470894827</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="2">
+        <v>43130</v>
+      </c>
+      <c r="B57">
+        <v>0.08617960841213987</v>
+      </c>
+      <c r="C57">
+        <v>0.6251880488711118</v>
+      </c>
+      <c r="D57">
+        <v>0.04623068073112681</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0.2424016619856215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="2">
+        <v>43131</v>
+      </c>
+      <c r="B58">
+        <v>0.08603319800014246</v>
+      </c>
+      <c r="C58">
+        <v>0.6253908037902995</v>
+      </c>
+      <c r="D58">
+        <v>0.04621666497173769</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0.2423593332378204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B59">
+        <v>0.08491529359897249</v>
+      </c>
+      <c r="C59">
+        <v>0.6259811085031537</v>
+      </c>
+      <c r="D59">
+        <v>0.04661694031238003</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0.2424866575854938</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="2">
+        <v>43133</v>
+      </c>
+      <c r="B60">
+        <v>0.08534772138231742</v>
+      </c>
+      <c r="C60">
+        <v>0.6259891067751974</v>
+      </c>
+      <c r="D60">
+        <v>0.0462337098132113</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0.242429462029274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="2">
+        <v>43136</v>
+      </c>
+      <c r="B61">
+        <v>0.08539863673442483</v>
+      </c>
+      <c r="C61">
+        <v>0.6263318191186071</v>
+      </c>
+      <c r="D61">
+        <v>0.04575526418513612</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0.242514279961832</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2">
+        <v>43137</v>
+      </c>
+      <c r="B62">
+        <v>0.08270692748384435</v>
+      </c>
+      <c r="C62">
+        <v>0.6286781381861009</v>
+      </c>
+      <c r="D62">
+        <v>0.04545113447248326</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0.2431637998575716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="2">
+        <v>43138</v>
+      </c>
+      <c r="B63">
+        <v>0.08140159409468729</v>
+      </c>
+      <c r="C63">
+        <v>0.6301745582193147</v>
+      </c>
+      <c r="D63">
+        <v>0.04477822919170469</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0.2436456184942933</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2">
+        <v>43139</v>
+      </c>
+      <c r="B64">
+        <v>0.08105747452475591</v>
+      </c>
+      <c r="C64">
+        <v>0.6306275421738482</v>
+      </c>
+      <c r="D64">
+        <v>0.04452651138093409</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0.2437884719204618</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2">
+        <v>43140</v>
+      </c>
+      <c r="B65">
+        <v>0.07804741933968568</v>
+      </c>
+      <c r="C65">
+        <v>0.6334303323199502</v>
+      </c>
+      <c r="D65">
+        <v>0.04369391677783126</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0.2448283315625328</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="2">
+        <v>43143</v>
+      </c>
+      <c r="B66">
+        <v>0.07916403023234495</v>
+      </c>
+      <c r="C66">
+        <v>0.6326829016421534</v>
+      </c>
+      <c r="D66">
+        <v>0.04376573271543612</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0.2443873354100656</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="2">
+        <v>43144</v>
+      </c>
+      <c r="B67">
+        <v>0.0799077200611845</v>
+      </c>
+      <c r="C67">
+        <v>0.6321689552011481</v>
+      </c>
+      <c r="D67">
+        <v>0.04378638895106009</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0.2441369357866073</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B68">
+        <v>0.08033162173548161</v>
+      </c>
+      <c r="C68">
+        <v>0.6314020767723988</v>
+      </c>
+      <c r="D68">
+        <v>0.04447885313055767</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0.243787448361562</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="2">
+        <v>43153</v>
+      </c>
+      <c r="B69">
+        <v>0.08178623273977775</v>
+      </c>
+      <c r="C69">
+        <v>0.6299002638557397</v>
+      </c>
+      <c r="D69">
+        <v>0.04532807123974278</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0.2429854321647397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="2">
+        <v>43154</v>
+      </c>
+      <c r="B70">
+        <v>0.08207210390727153</v>
+      </c>
+      <c r="C70">
+        <v>0.6295813227856317</v>
+      </c>
+      <c r="D70">
+        <v>0.04556332778369226</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0.2427832455234046</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="2">
+        <v>43157</v>
+      </c>
+      <c r="B71">
+        <v>0.08304343368034187</v>
+      </c>
+      <c r="C71">
+        <v>0.6290913294106255</v>
+      </c>
+      <c r="D71">
+        <v>0.04567448628298765</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0.2421907506260449</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2">
+        <v>43158</v>
+      </c>
+      <c r="B72">
+        <v>0.08215037974535364</v>
+      </c>
+      <c r="C72">
+        <v>0.6300972813354641</v>
+      </c>
+      <c r="D72">
+        <v>0.04535447117565693</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0.2423978677435253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="2">
+        <v>43159</v>
+      </c>
+      <c r="B73">
+        <v>0.08173106778546314</v>
+      </c>
+      <c r="C73">
+        <v>0.6309484413103975</v>
+      </c>
+      <c r="D73">
+        <v>0.0447179303523508</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0.2426025605517886</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B74">
+        <v>0.08230549326021817</v>
+      </c>
+      <c r="C74">
+        <v>0.6307511749596378</v>
+      </c>
+      <c r="D74">
+        <v>0.04446210399380376</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0.2424812277863402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="2">
+        <v>43161</v>
+      </c>
+      <c r="B75">
+        <v>0.08174663570078258</v>
+      </c>
+      <c r="C75">
+        <v>0.6310740286419946</v>
+      </c>
+      <c r="D75">
+        <v>0.04454480954975132</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0.2426345261074715</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="2">
+        <v>43164</v>
+      </c>
+      <c r="B76">
+        <v>0.08174429884918538</v>
+      </c>
+      <c r="C76">
+        <v>0.6306569281966194</v>
+      </c>
+      <c r="D76">
+        <v>0.04512447485355282</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0.2424742981006424</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2">
+        <v>43165</v>
+      </c>
+      <c r="B77">
+        <v>0.08265909061596799</v>
+      </c>
+      <c r="C77">
+        <v>0.6300206093038341</v>
+      </c>
+      <c r="D77">
+        <v>0.0451393903487223</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0.2421809097314755</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2">
+        <v>43166</v>
+      </c>
+      <c r="B78">
+        <v>0.08209144617042932</v>
+      </c>
+      <c r="C78">
+        <v>0.6309554924972836</v>
+      </c>
+      <c r="D78">
+        <v>0.04451089363226889</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0.2424421677000184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2">
+        <v>43167</v>
+      </c>
+      <c r="B79">
+        <v>0.0828195089243722</v>
+      </c>
+      <c r="C79">
+        <v>0.6307808409409253</v>
+      </c>
+      <c r="D79">
+        <v>0.04409403229637332</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0.2423056178383292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>43168</v>
+      </c>
+      <c r="B80">
+        <v>0.08342413825282291</v>
+      </c>
+      <c r="C80">
+        <v>0.6299445979471915</v>
+      </c>
+      <c r="D80">
+        <v>0.04469979233772092</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0.2419314714622647</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2">
+        <v>43171</v>
+      </c>
+      <c r="B81">
+        <v>0.08396462360253551</v>
+      </c>
+      <c r="C81">
+        <v>0.6298680579892155</v>
+      </c>
+      <c r="D81">
+        <v>0.04438076228255849</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0.2417865561256906</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>43172</v>
+      </c>
+      <c r="B82">
+        <v>0.08334846320899748</v>
+      </c>
+      <c r="C82">
+        <v>0.6303224231140594</v>
+      </c>
+      <c r="D82">
+        <v>0.04432061788864614</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0.242008495788297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>43173</v>
+      </c>
+      <c r="B83">
+        <v>0.08288263538652876</v>
+      </c>
+      <c r="C83">
+        <v>0.6305827459512493</v>
+      </c>
+      <c r="D83">
+        <v>0.04444229879079328</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0.2420923198714286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>43174</v>
+      </c>
+      <c r="B84">
+        <v>0.08316138240549695</v>
+      </c>
+      <c r="C84">
+        <v>0.6304468028285142</v>
+      </c>
+      <c r="D84">
+        <v>0.04439714620661595</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0.241994668559373</v>
       </c>
     </row>
   </sheetData>

--- a/MVPLT/data/曹越奇-每日权重.xlsx
+++ b/MVPLT/data/曹越奇-每日权重.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1560,19 +1560,19 @@
         <v>43132</v>
       </c>
       <c r="B59">
-        <v>0.08491529359897249</v>
+        <v>0.08487413190984791</v>
       </c>
       <c r="C59">
-        <v>0.6259811085031537</v>
+        <v>0.625677671528564</v>
       </c>
       <c r="D59">
-        <v>0.04661694031238003</v>
+        <v>0.04659434329924197</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.2424866575854938</v>
+        <v>0.2428538532623461</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1580,19 +1580,19 @@
         <v>43133</v>
       </c>
       <c r="B60">
-        <v>0.08534772138231742</v>
+        <v>0.08530635983247369</v>
       </c>
       <c r="C60">
-        <v>0.6259891067751974</v>
+        <v>0.6256857374617328</v>
       </c>
       <c r="D60">
-        <v>0.0462337098132113</v>
+        <v>0.04621130385014718</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.242429462029274</v>
+        <v>0.2427965988556464</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1600,19 +1600,19 @@
         <v>43136</v>
       </c>
       <c r="B61">
-        <v>0.08539863673442483</v>
+        <v>0.08535723603715066</v>
       </c>
       <c r="C61">
-        <v>0.6263318191186071</v>
+        <v>0.6260281775731671</v>
       </c>
       <c r="D61">
-        <v>0.04575526418513612</v>
+        <v>0.04573308233407075</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.242514279961832</v>
+        <v>0.2428815040556115</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1620,19 +1620,19 @@
         <v>43137</v>
       </c>
       <c r="B62">
-        <v>0.08270692748384435</v>
+        <v>0.08266672437420312</v>
       </c>
       <c r="C62">
-        <v>0.6286781381861009</v>
+        <v>0.6283725432754028</v>
       </c>
       <c r="D62">
-        <v>0.04545113447248326</v>
+        <v>0.04542904107597942</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.2431637998575716</v>
+        <v>0.2435316912744147</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1640,19 +1640,19 @@
         <v>43138</v>
       </c>
       <c r="B63">
-        <v>0.08140159409468729</v>
+        <v>0.08136194713082612</v>
       </c>
       <c r="C63">
-        <v>0.6301745582193147</v>
+        <v>0.6298676292431217</v>
       </c>
       <c r="D63">
-        <v>0.04477822919170469</v>
+        <v>0.04475641978054665</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.2436456184942933</v>
+        <v>0.2440140038455055</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1660,19 +1660,19 @@
         <v>43139</v>
       </c>
       <c r="B64">
-        <v>0.08105747452475591</v>
+        <v>0.08101797202955754</v>
       </c>
       <c r="C64">
-        <v>0.6306275421738482</v>
+        <v>0.6303202125709617</v>
       </c>
       <c r="D64">
-        <v>0.04452651138093409</v>
+        <v>0.0445048118607808</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.2437884719204618</v>
+        <v>0.2441570035386999</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1680,19 +1680,19 @@
         <v>43140</v>
       </c>
       <c r="B65">
-        <v>0.07804741933968568</v>
+        <v>0.07800922160454182</v>
       </c>
       <c r="C65">
-        <v>0.6334303323199502</v>
+        <v>0.6331203207363418</v>
       </c>
       <c r="D65">
-        <v>0.04369391677783126</v>
+        <v>0.04367253223142861</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.2448283315625328</v>
+        <v>0.2451979254276878</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1700,19 +1700,19 @@
         <v>43143</v>
       </c>
       <c r="B66">
-        <v>0.07916403023234495</v>
+        <v>0.07912535576262854</v>
       </c>
       <c r="C66">
-        <v>0.6326829016421534</v>
+        <v>0.632373813339703</v>
       </c>
       <c r="D66">
-        <v>0.04376573271543612</v>
+        <v>0.04374435158439022</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.2443873354100656</v>
+        <v>0.2447564793132783</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1720,19 +1720,19 @@
         <v>43144</v>
       </c>
       <c r="B67">
-        <v>0.0799077200611845</v>
+        <v>0.07986872225095343</v>
       </c>
       <c r="C67">
-        <v>0.6321689552011481</v>
+        <v>0.6318604342606179</v>
       </c>
       <c r="D67">
-        <v>0.04378638895106009</v>
+        <v>0.0437650196354832</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.2441369357866073</v>
+        <v>0.2445058238529456</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1740,19 +1740,19 @@
         <v>43145</v>
       </c>
       <c r="B68">
-        <v>0.08033162173548161</v>
+        <v>0.08029247314118217</v>
       </c>
       <c r="C68">
-        <v>0.6314020767723988</v>
+        <v>0.6310943709996362</v>
       </c>
       <c r="D68">
-        <v>0.04447885313055767</v>
+        <v>0.04445717692710883</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.243787448361562</v>
+        <v>0.244155978932073</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1760,19 +1760,19 @@
         <v>43153</v>
       </c>
       <c r="B69">
-        <v>0.08178623273977775</v>
+        <v>0.08174650631944579</v>
       </c>
       <c r="C69">
-        <v>0.6299002638557397</v>
+        <v>0.629594299369898</v>
       </c>
       <c r="D69">
-        <v>0.04532807123974278</v>
+        <v>0.04530605381760967</v>
       </c>
       <c r="E69">
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.2429854321647397</v>
+        <v>0.2433531404930465</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1780,19 +1780,19 @@
         <v>43154</v>
       </c>
       <c r="B70">
-        <v>0.08207210390727153</v>
+        <v>0.08203227178490832</v>
       </c>
       <c r="C70">
-        <v>0.6295813227856317</v>
+        <v>0.6292757675592772</v>
       </c>
       <c r="D70">
-        <v>0.04556332778369226</v>
+        <v>0.04554121449597143</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.2427832455234046</v>
+        <v>0.2431507461598432</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1800,19 +1800,19 @@
         <v>43157</v>
       </c>
       <c r="B71">
-        <v>0.08304343368034187</v>
+        <v>0.08300322845193554</v>
       </c>
       <c r="C71">
-        <v>0.6290913294106255</v>
+        <v>0.6287867567374296</v>
       </c>
       <c r="D71">
-        <v>0.04567448628298765</v>
+        <v>0.04565237311796105</v>
       </c>
       <c r="E71">
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.2421907506260449</v>
+        <v>0.2425576416926738</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1820,19 +1820,19 @@
         <v>43158</v>
       </c>
       <c r="B72">
-        <v>0.08215037974535364</v>
+        <v>0.08211057288977827</v>
       </c>
       <c r="C72">
-        <v>0.6300972813354641</v>
+        <v>0.6297919608785861</v>
       </c>
       <c r="D72">
-        <v>0.04535447117565693</v>
+        <v>0.04533249417580151</v>
       </c>
       <c r="E72">
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.2423978677435253</v>
+        <v>0.2427649720558341</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1840,19 +1840,19 @@
         <v>43159</v>
       </c>
       <c r="B73">
-        <v>0.08173106778546314</v>
+        <v>0.08169143068494453</v>
       </c>
       <c r="C73">
-        <v>0.6309484413103975</v>
+        <v>0.6306424503638957</v>
       </c>
       <c r="D73">
-        <v>0.0447179303523508</v>
+        <v>0.04469624350610754</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.2426025605517886</v>
+        <v>0.2429698754450524</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1860,19 +1860,19 @@
         <v>43160</v>
       </c>
       <c r="B74">
-        <v>0.08230549326021817</v>
+        <v>0.08226559753402893</v>
       </c>
       <c r="C74">
-        <v>0.6307511749596378</v>
+        <v>0.6304454325945423</v>
       </c>
       <c r="D74">
-        <v>0.04446210399380376</v>
+        <v>0.04444055199458147</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.2424812277863402</v>
+        <v>0.2428484178768474</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1880,19 +1880,19 @@
         <v>43161</v>
       </c>
       <c r="B75">
-        <v>0.08174663570078258</v>
+        <v>0.0817069858292099</v>
       </c>
       <c r="C75">
-        <v>0.6310740286419946</v>
+        <v>0.6307679364832899</v>
       </c>
       <c r="D75">
-        <v>0.04454480954975132</v>
+        <v>0.04452320381683355</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.2426345261074715</v>
+        <v>0.2430018738706668</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1900,19 +1900,19 @@
         <v>43164</v>
       </c>
       <c r="B76">
-        <v>0.08174429884918538</v>
+        <v>0.08170467628111977</v>
       </c>
       <c r="C76">
-        <v>0.6306569281966194</v>
+        <v>0.6303512402475476</v>
       </c>
       <c r="D76">
-        <v>0.04512447485355282</v>
+        <v>0.04510260240982914</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.2424742981006424</v>
+        <v>0.2428414810615035</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1920,19 +1920,19 @@
         <v>43165</v>
       </c>
       <c r="B77">
-        <v>0.08265909061596799</v>
+        <v>0.08261907309140309</v>
       </c>
       <c r="C77">
-        <v>0.6300206093038341</v>
+        <v>0.6297155991105047</v>
       </c>
       <c r="D77">
-        <v>0.0451393903487223</v>
+        <v>0.04511753713634525</v>
       </c>
       <c r="E77">
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.2421809097314755</v>
+        <v>0.2425477906617469</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1940,19 +1940,19 @@
         <v>43166</v>
       </c>
       <c r="B78">
-        <v>0.08209144617042932</v>
+        <v>0.08205166060550814</v>
       </c>
       <c r="C78">
-        <v>0.6309554924972836</v>
+        <v>0.6306497003364656</v>
       </c>
       <c r="D78">
-        <v>0.04451089363226889</v>
+        <v>0.04448932145720172</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0.2424421677000184</v>
+        <v>0.2428093176008246</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1960,19 +1960,19 @@
         <v>43167</v>
       </c>
       <c r="B79">
-        <v>0.0828195089243722</v>
+        <v>0.08277939310039326</v>
       </c>
       <c r="C79">
-        <v>0.6307808409409253</v>
+        <v>0.6304753055240516</v>
       </c>
       <c r="D79">
-        <v>0.04409403229637332</v>
+        <v>0.04407267418327778</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.2423056178383292</v>
+        <v>0.2426726271922773</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1980,19 +1980,19 @@
         <v>43168</v>
       </c>
       <c r="B80">
-        <v>0.08342413825282291</v>
+        <v>0.08338379192586945</v>
       </c>
       <c r="C80">
-        <v>0.6299445979471915</v>
+        <v>0.6296399385135595</v>
       </c>
       <c r="D80">
-        <v>0.04469979233772092</v>
+        <v>0.04467817422485598</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.2419314714622647</v>
+        <v>0.2422980953357151</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2000,19 +2000,19 @@
         <v>43171</v>
       </c>
       <c r="B81">
-        <v>0.08396462360253551</v>
+        <v>0.08392404019322657</v>
       </c>
       <c r="C81">
-        <v>0.6298680579892155</v>
+        <v>0.6295636179511227</v>
       </c>
       <c r="D81">
-        <v>0.04438076228255849</v>
+        <v>0.04435931131232985</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.2417865561256906</v>
+        <v>0.242153030543321</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2020,19 +2020,19 @@
         <v>43172</v>
       </c>
       <c r="B82">
-        <v>0.08334846320899748</v>
+        <v>0.0833081406533846</v>
       </c>
       <c r="C82">
-        <v>0.6303224231140594</v>
+        <v>0.6300174839468388</v>
       </c>
       <c r="D82">
-        <v>0.04432061788864614</v>
+        <v>0.04429917633458735</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.242008495788297</v>
+        <v>0.2423751990651893</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2040,19 +2040,19 @@
         <v>43173</v>
       </c>
       <c r="B83">
-        <v>0.08288263538652876</v>
+        <v>0.08284252430874094</v>
       </c>
       <c r="C83">
-        <v>0.6305827459512493</v>
+        <v>0.6302775752305483</v>
       </c>
       <c r="D83">
-        <v>0.04444229879079328</v>
+        <v>0.04442079092614161</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.2420923198714286</v>
+        <v>0.2424591095345691</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2060,19 +2060,299 @@
         <v>43174</v>
       </c>
       <c r="B84">
-        <v>0.08316138240549695</v>
+        <v>0.08312115265392343</v>
       </c>
       <c r="C84">
-        <v>0.6304468028285142</v>
+        <v>0.630141820906323</v>
       </c>
       <c r="D84">
-        <v>0.04439714620661595</v>
+        <v>0.0443756688560621</v>
       </c>
       <c r="E84">
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.241994668559373</v>
+        <v>0.2423613575836917</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2">
+        <v>43175</v>
+      </c>
+      <c r="B85">
+        <v>0.1194287817795524</v>
+      </c>
+      <c r="C85">
+        <v>0.7463212652916775</v>
+      </c>
+      <c r="D85">
+        <v>0.03424995292877015</v>
+      </c>
+      <c r="E85">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>43178</v>
+      </c>
+      <c r="B86">
+        <v>0.1198083826711713</v>
+      </c>
+      <c r="C86">
+        <v>0.7462126749927326</v>
+      </c>
+      <c r="D86">
+        <v>0.03398405472149876</v>
+      </c>
+      <c r="E86">
+        <v>0.09999488761459743</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
+        <v>43179</v>
+      </c>
+      <c r="B87">
+        <v>0.1198661434907702</v>
+      </c>
+      <c r="C87">
+        <v>0.7458983281242398</v>
+      </c>
+      <c r="D87">
+        <v>0.03432648020050405</v>
+      </c>
+      <c r="E87">
+        <v>0.09990904818448584</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>43180</v>
+      </c>
+      <c r="B88">
+        <v>0.1192335641475781</v>
+      </c>
+      <c r="C88">
+        <v>0.7460066764681675</v>
+      </c>
+      <c r="D88">
+        <v>0.03487776318806392</v>
+      </c>
+      <c r="E88">
+        <v>0.09988199619619059</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
+        <v>43181</v>
+      </c>
+      <c r="B89">
+        <v>0.1182799889119344</v>
+      </c>
+      <c r="C89">
+        <v>0.74710652529178</v>
+      </c>
+      <c r="D89">
+        <v>0.03465731787528344</v>
+      </c>
+      <c r="E89">
+        <v>0.09995616792100204</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
+        <v>43182</v>
+      </c>
+      <c r="B90">
+        <v>0.1144289162919812</v>
+      </c>
+      <c r="C90">
+        <v>0.7502846227006292</v>
+      </c>
+      <c r="D90">
+        <v>0.03510789172231183</v>
+      </c>
+      <c r="E90">
+        <v>0.1001785692850777</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="2">
+        <v>43185</v>
+      </c>
+      <c r="B91">
+        <v>0.1144230389175175</v>
+      </c>
+      <c r="C91">
+        <v>0.7504322273412516</v>
+      </c>
+      <c r="D91">
+        <v>0.03496599224846742</v>
+      </c>
+      <c r="E91">
+        <v>0.1001787414927635</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2">
+        <v>43186</v>
+      </c>
+      <c r="B92">
+        <v>0.1156831060829586</v>
+      </c>
+      <c r="C92">
+        <v>0.7493397449144062</v>
+      </c>
+      <c r="D92">
+        <v>0.03489948028338404</v>
+      </c>
+      <c r="E92">
+        <v>0.1000776687192512</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2">
+        <v>43187</v>
+      </c>
+      <c r="B93">
+        <v>0.114040195566109</v>
+      </c>
+      <c r="C93">
+        <v>0.7509583983937026</v>
+      </c>
+      <c r="D93">
+        <v>0.0347309163490245</v>
+      </c>
+      <c r="E93">
+        <v>0.100270489691164</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2">
+        <v>43188</v>
+      </c>
+      <c r="B94">
+        <v>0.1152720885737097</v>
+      </c>
+      <c r="C94">
+        <v>0.749722111598243</v>
+      </c>
+      <c r="D94">
+        <v>0.03489631898284465</v>
+      </c>
+      <c r="E94">
+        <v>0.1001094808452028</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
+        <v>43189</v>
+      </c>
+      <c r="B95">
+        <v>0.115671714662274</v>
+      </c>
+      <c r="C95">
+        <v>0.749424375439006</v>
+      </c>
+      <c r="D95">
+        <v>0.03486672851202773</v>
+      </c>
+      <c r="E95">
+        <v>0.1000371813866922</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2">
+        <v>43192</v>
+      </c>
+      <c r="B96">
+        <v>0.115482040935993</v>
+      </c>
+      <c r="C96">
+        <v>0.7501461768230685</v>
+      </c>
+      <c r="D96">
+        <v>0.03427608469460149</v>
+      </c>
+      <c r="E96">
+        <v>0.1000956975463369</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2">
+        <v>43193</v>
+      </c>
+      <c r="B97">
+        <v>0.1146734903756554</v>
+      </c>
+      <c r="C97">
+        <v>0.7507570385036836</v>
+      </c>
+      <c r="D97">
+        <v>0.03442992796404928</v>
+      </c>
+      <c r="E97">
+        <v>0.1001395431566116</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>43194</v>
+      </c>
+      <c r="B98">
+        <v>0.1142826762398791</v>
+      </c>
+      <c r="C98">
+        <v>0.7512421406535723</v>
+      </c>
+      <c r="D98">
+        <v>0.03433589793933094</v>
+      </c>
+      <c r="E98">
+        <v>0.1001392851672175</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
